--- a/Team-Data/2011-12/2-7-2011-12.xlsx
+++ b/Team-Data/2011-12/2-7-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -756,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -792,16 +859,16 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.583</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="J3" t="n">
-        <v>74.8</v>
+        <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.407</v>
+        <v>0.422</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
         <v>8.800000000000001</v>
@@ -896,40 +963,40 @@
         <v>30.1</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
@@ -941,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,22 +1017,22 @@
         <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -989,19 +1056,19 @@
         <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
       </c>
       <c r="BC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -1030,91 +1097,91 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.305</v>
+        <v>0.307</v>
       </c>
       <c r="O4" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P4" t="n">
         <v>19.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
         <v>19.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.6</v>
+        <v>-13.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
@@ -1123,13 +1190,13 @@
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1138,19 +1205,19 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,13 +1238,13 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
@@ -1317,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1332,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="AR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT5" t="n">
         <v>3</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>3</v>
@@ -1350,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
         <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1427,37 +1494,37 @@
         <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
         <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
         <v>16.4</v>
       </c>
       <c r="W6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
         <v>20.7</v>
@@ -1466,10 +1533,10 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
@@ -1478,10 +1545,10 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>14</v>
@@ -1493,13 +1560,13 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN6" t="n">
         <v>11</v>
@@ -1514,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1532,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
@@ -1547,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1684,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1693,10 +1760,10 @@
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS7" t="n">
         <v>5</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1881,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1899,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2106,7 @@
         <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
@@ -2051,10 +2118,10 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>6</v>
@@ -2069,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.364</v>
+        <v>0.381</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
       <c r="J10" t="n">
         <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M10" t="n">
         <v>20.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.74</v>
+        <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T10" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U10" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2182,31 +2249,31 @@
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y10" t="n">
         <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC10" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2215,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
         <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2233,19 +2300,19 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR10" t="n">
         <v>21</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>22</v>
-      </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2409,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
@@ -2418,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2439,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
@@ -2454,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2486,70 +2553,70 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.708</v>
+        <v>0.696</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="J12" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K12" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O12" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
         <v>18</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
         <v>21</v>
@@ -2558,16 +2625,16 @@
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
         <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2579,13 +2646,13 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2612,22 +2679,22 @@
         <v>7</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>24</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
@@ -2809,7 +2876,7 @@
         <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -2934,13 +3001,13 @@
         <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
@@ -2967,16 +3034,16 @@
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>12</v>
       </c>
       <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
         <v>2</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
@@ -3000,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
@@ -3122,10 +3189,10 @@
         <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3152,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3164,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3173,13 +3240,13 @@
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
@@ -3232,67 +3299,67 @@
         <v>38.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="L16" t="n">
         <v>5.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O16" t="n">
+        <v>21</v>
+      </c>
+      <c r="P16" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>42</v>
+      </c>
+      <c r="U16" t="n">
         <v>21.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="R16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>21</v>
       </c>
       <c r="V16" t="n">
         <v>15.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>22.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3331,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
@@ -3340,10 +3407,10 @@
         <v>6</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>24</v>
@@ -3352,16 +3419,16 @@
         <v>9</v>
       </c>
       <c r="AX16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>21</v>
       </c>
-      <c r="AY16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>22</v>
-      </c>
       <c r="BA16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -3396,46 +3463,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.435</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M17" t="n">
         <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>0.323</v>
+        <v>0.317</v>
       </c>
       <c r="O17" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P17" t="n">
         <v>20</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.786</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
         <v>11.7</v>
@@ -3447,13 +3514,13 @@
         <v>40.7</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.7</v>
@@ -3462,13 +3529,13 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-1.3</v>
@@ -3477,13 +3544,13 @@
         <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG17" t="n">
         <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3495,19 +3562,19 @@
         <v>3</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3531,13 +3598,13 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -3578,88 +3645,88 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
         <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J18" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P18" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.763</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
         <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T18" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U18" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V18" t="n">
         <v>15.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
         <v>19.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="AC18" t="n">
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -3674,16 +3741,16 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AN18" t="n">
         <v>16</v>
@@ -3692,16 +3759,16 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>4</v>
@@ -3713,22 +3780,22 @@
         <v>21</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY18" t="n">
         <v>27</v>
       </c>
-      <c r="AY18" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3904,7 +3971,7 @@
         <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4071,10 +4138,10 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>20</v>
@@ -4083,10 +4150,10 @@
         <v>16</v>
       </c>
       <c r="AY20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>22</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4205,25 +4272,25 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4232,13 +4299,13 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
         <v>5</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
         <v>14</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.792</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J22" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.469</v>
       </c>
       <c r="L22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
         <v>21.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.796</v>
+        <v>0.791</v>
       </c>
       <c r="R22" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
         <v>7.6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
         <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,22 +4493,22 @@
         <v>3</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4818,7 @@
         <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4784,7 +4851,7 @@
         <v>30</v>
       </c>
       <c r="AP24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4793,19 +4860,19 @@
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>81.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N25" t="n">
         <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
@@ -4915,31 +4982,31 @@
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
         <v>26</v>
@@ -4948,31 +5015,31 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
         <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>10</v>
@@ -4993,19 +5060,19 @@
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -5118,10 +5185,10 @@
         <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5133,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5160,7 +5227,7 @@
         <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5175,10 +5242,10 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.298</v>
+        <v>0.295</v>
       </c>
       <c r="O27" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="R27" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
@@ -5282,25 +5349,25 @@
         <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>91.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5321,46 +5388,46 @@
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -5491,34 +5558,34 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK28" t="n">
         <v>8</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>14</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
@@ -5539,20 +5606,20 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC28" t="n">
         <v>8</v>
       </c>
-      <c r="BC28" t="n">
-        <v>9</v>
-      </c>
       <c r="BD28" t="n">
         <v>10</v>
       </c>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5700,19 +5767,19 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -5762,67 +5829,67 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0.542</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I30" t="n">
         <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="N30" t="n">
-        <v>0.292</v>
+        <v>0.289</v>
       </c>
       <c r="O30" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.739</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
         <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W30" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
         <v>5.6</v>
@@ -5831,25 +5898,25 @@
         <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>4</v>
@@ -5858,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5876,13 +5943,13 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>17</v>
@@ -5894,10 +5961,10 @@
         <v>16</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5912,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6043,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,7 +6122,7 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>27</v>
@@ -6079,13 +6146,13 @@
         <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2011-12</t>
+          <t>2012-02-07</t>
         </is>
       </c>
     </row>
